--- a/print_settings/strength/infill_desc_calculator.xlsx
+++ b/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6190A67-761B-4BA2-BCD4-C6D7D3DAB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>Infill</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Extra Low</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.</t>
   </si>
   <si>
     <t>Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.</t>
@@ -267,9 +261,6 @@
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Material/Time</t>
   </si>
   <si>
@@ -322,10 +313,43 @@
     <t>% of layer before top shell layers</t>
   </si>
   <si>
-    <t>Ref</t>
-  </si>
-  <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>Current Order</t>
+  </si>
+  <si>
+    <t>Tentative Order</t>
+  </si>
+  <si>
+    <t>Zig Zag</t>
+  </si>
+  <si>
+    <t>Coss Zag</t>
+  </si>
+  <si>
+    <t>Locked Zag</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
+  </si>
+  <si>
+    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
+  </si>
+  <si>
+    <t>Print Time</t>
+  </si>
+  <si>
+    <t>Pattern</t>
   </si>
 </sst>
 </file>
@@ -602,9 +626,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:Y23">
-  <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AA26">
+  <autoFilter ref="E1:AA26" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AA26">
+    <sortCondition ref="E1:E26"/>
+  </sortState>
+  <tableColumns count="23">
+    <tableColumn id="22" xr3:uid="{8D3A2FCE-7458-4DCB-BCE6-4671B3808244}" name="Current Order"/>
+    <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Tentative Order"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
     <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="21" dataCellStyle="Porcentaje"/>
     <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="20"/>
@@ -622,27 +651,31 @@
     <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="9" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="8" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
@@ -652,7 +685,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
@@ -1002,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,172 +1046,186 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" customWidth="1"/>
+    <col min="26" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2">
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>158.77000000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="R2" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.94559721011333908</v>
-      </c>
-      <c r="S2" s="2" t="str">
+      <c r="T2" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.92917369308600339</v>
+      </c>
+      <c r="U2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="U2" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1881012132687909</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="2" t="str">
+      <c r="W2" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1179101798703965</v>
+      </c>
+      <c r="X2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="X2" s="2" t="str">
+      <c r="Z2" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="Y2" s="2" t="str">
+      <c r="AA2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1194,192 +1241,207 @@
 </v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3">
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>148.6</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3">
+      <c r="R3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="R3" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93408892763731477</v>
-      </c>
-      <c r="S3" s="2" t="str">
+      <c r="T3" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91786529114175186</v>
+      </c>
+      <c r="U3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T3" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="U3" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1256976567918875</v>
-      </c>
-      <c r="V3" t="str">
+      <c r="W3" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0591933211831519</v>
+      </c>
+      <c r="X3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="W3" s="2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="Y3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="Z3" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="Y3" s="2" t="str">
+      <c r="AA3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
-- **Material/Time (Higher better):** Normal-High
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4">
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>148.87</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4">
+      <c r="R4" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="R4" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93217088055797737</v>
-      </c>
-      <c r="S4" s="2" t="str">
+      <c r="T4" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91598055748437657</v>
+      </c>
+      <c r="U4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T4" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="U4" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1300634613198943</v>
-      </c>
-      <c r="V4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="2" t="str">
+      <c r="W4" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0633012012784473</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="Z4" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="Y4" s="2" t="str">
+      <c r="AA4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1389,97 +1451,105 @@
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="J5" t="str">
+      <c r="L5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>148.54</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
+      <c r="R5" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="R5" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92833478639930256</v>
-      </c>
-      <c r="S5" s="2" t="str">
+      <c r="T5" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91221109016962609</v>
+      </c>
+      <c r="U5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T5" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="U5" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1322177830650146</v>
-      </c>
-      <c r="V5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="2" t="str">
+      <c r="W5" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0653282492964862</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="Z5" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Lattice](#2d-lattice)</v>
       </c>
-      <c r="Y5" s="2" t="str">
+      <c r="AA5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1489,97 +1559,105 @@
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6">
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>49</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>154.68</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6">
+      <c r="R6" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="R6" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.8995640802092415</v>
-      </c>
-      <c r="S6" s="2" t="str">
+      <c r="T6" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88394008530899715</v>
+      </c>
+      <c r="U6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="U6" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.2167272496405854</v>
-      </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="2" t="str">
+      <c r="W6" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1448450378706885</v>
+      </c>
+      <c r="X6" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="Z6" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="Y6" s="2" t="str">
+      <c r="AA6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1595,91 +1673,99 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7">
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>148.54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7">
+      <c r="R7" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R7" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
-      </c>
-      <c r="S7" s="2" t="str">
+      <c r="T7" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
+      </c>
+      <c r="U7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="U7" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1659434191563129</v>
-      </c>
-      <c r="V7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0970614311904239</v>
+      </c>
+      <c r="X7" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="Z7" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="AA7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1695,91 +1781,99 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8">
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>50</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>147.55000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8">
+      <c r="R8" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R8" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
-      </c>
-      <c r="S8" s="2" t="str">
+      <c r="T8" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
+      </c>
+      <c r="U8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="U8" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.158172556190346</v>
-      </c>
-      <c r="V8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="2" t="str">
+      <c r="W8" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0897496578170667</v>
+      </c>
+      <c r="X8" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="Z8" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="Y8" s="2" t="str">
+      <c r="AA8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1795,91 +1889,99 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="J9" t="str">
+      <c r="L9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9">
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>148.53</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9">
+      <c r="R9" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="R9" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.88805579773321708</v>
-      </c>
-      <c r="S9" s="2" t="str">
+      <c r="T9" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87263168336474561</v>
+      </c>
+      <c r="U9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="U9" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1834913931485316</v>
-      </c>
-      <c r="V9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="2" t="str">
+      <c r="W9" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1135727002160909</v>
+      </c>
+      <c r="X9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="Z9" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="Y9" s="2" t="str">
+      <c r="AA9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1895,85 +1997,93 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10">
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>49</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>141.77000000000001</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10">
+      <c r="R10" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="R10" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2448125544899737</v>
-      </c>
-      <c r="S10" s="2" t="str">
+      <c r="T10" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.223192143636544</v>
+      </c>
+      <c r="U10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="U10" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.8058821871442029</v>
-      </c>
-      <c r="V10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="2" t="str">
+      <c r="W10" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.75827201481100404</v>
+      </c>
+      <c r="X10" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="Z10" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Gyroid](#gyroid)</v>
       </c>
-      <c r="Y10" s="2" t="str">
+      <c r="AA10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1984,99 +2094,107 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11">
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>29</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>151.01</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11">
+      <c r="R11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="R11" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.3215344376634699</v>
-      </c>
-      <c r="S11" s="2" t="str">
+      <c r="T11" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2985814899315544</v>
+      </c>
+      <c r="U11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="U11" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.80857144412283</v>
-      </c>
-      <c r="V11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="2" t="str">
+      <c r="W11" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76080239498326518</v>
+      </c>
+      <c r="X11" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="Z11" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="Y11" s="2" t="str">
+      <c r="AA11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2087,12 +2205,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2100,86 +2218,94 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="J12" t="str">
+      <c r="L12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12">
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12">
         <v>17</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>36</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>190.54</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12">
+      <c r="R12" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
+      </c>
+      <c r="S12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="R12" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>2.0254577157802962</v>
-      </c>
-      <c r="S12" s="2" t="str">
+      <c r="T12" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.9902787421882751</v>
+      </c>
+      <c r="U12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="U12" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.6656625993664127</v>
-      </c>
-      <c r="V12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" s="2" t="str">
+      <c r="W12" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.62633636585837626</v>
+      </c>
+      <c r="X12" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="Z12" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="Y12" s="2" t="str">
+      <c r="AA12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2190,12 +2316,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** High
 - **Print Time:** Ultra-High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2203,86 +2329,94 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13">
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>29</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>97.57</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13">
+      <c r="R13" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="S13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="R13" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.63103748910200519</v>
-      </c>
-      <c r="S13" s="2" t="str">
+      <c r="T13" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.62007737327646073</v>
+      </c>
+      <c r="U13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="U13" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0940881667956823</v>
-      </c>
-      <c r="V13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W13" s="2" t="str">
+      <c r="W13" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0294512670108069</v>
+      </c>
+      <c r="X13" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="Z13" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="Y13" s="2" t="str">
+      <c r="AA13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2298,7 +2432,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2308,84 +2442,92 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="str">
+      <c r="L14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14">
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>148.6</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14">
+      <c r="R14" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="R14" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93600697471665206</v>
-      </c>
-      <c r="S14" s="2" t="str">
+      <c r="T14" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91975002479912704</v>
+      </c>
+      <c r="U14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T14" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="U14" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1233908992984614</v>
-      </c>
-      <c r="V14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14" s="2" t="str">
+      <c r="W14" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0570228430659732</v>
+      </c>
+      <c r="X14" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="Z14" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="Y14" s="2" t="str">
+      <c r="AA14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2396,13 +2538,13 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2410,86 +2552,94 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15" t="str">
+      <c r="L15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15">
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15">
         <v>8</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>147.52000000000001</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15">
+      <c r="R15" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="R15" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92449869224062775</v>
-      </c>
-      <c r="S15" s="2" t="str">
+      <c r="T15" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90844162285487551</v>
+      </c>
+      <c r="U15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="U15" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1291087665609367</v>
-      </c>
-      <c r="V15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="2" t="str">
+      <c r="W15" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.062402908289779</v>
+      </c>
+      <c r="X15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="Z15" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
-      <c r="Y15" s="2" t="str">
+      <c r="AA15" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2505,7 +2655,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2513,86 +2663,94 @@
         <v>1.075</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16">
+      <c r="H16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="J16" t="str">
+      <c r="L16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16">
+      <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>28</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>123.92</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16">
+      <c r="R16" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="S16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="R16" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.4346992153443765</v>
-      </c>
-      <c r="S16" s="2" t="str">
+      <c r="T16" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.4097807757166949</v>
+      </c>
+      <c r="U16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T16" s="3">
+      <c r="V16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="U16" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.61118364015697213</v>
-      </c>
-      <c r="V16" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="2" t="str">
+      <c r="W16" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.57507593248046729</v>
+      </c>
+      <c r="X16" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="Z16" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="Y16" s="2" t="str">
+      <c r="AA16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2603,12 +2761,12 @@
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2616,86 +2774,94 @@
         <v>1.25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17">
+      <c r="H17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="H17" t="str">
+      <c r="J17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="J17" t="str">
+      <c r="L17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17">
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>24</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>148.63</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17">
+      <c r="R17" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="R17" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.5421098517872711</v>
-      </c>
-      <c r="S17" s="2" t="str">
+      <c r="T17" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.5153258605297093</v>
+      </c>
+      <c r="U17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="U17" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.68199680943375651</v>
-      </c>
-      <c r="V17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="2" t="str">
+      <c r="W17" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.64170557810266515</v>
+      </c>
+      <c r="X17" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="Z17" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="Y17" s="2" t="str">
+      <c r="AA17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2707,12 +2873,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2722,84 +2888,92 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18">
+      <c r="H18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="H18" t="str">
+      <c r="J18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="J18" t="str">
+      <c r="L18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18">
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>46</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>148.21</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18">
+      <c r="R18" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="R18" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.89380993897122929</v>
-      </c>
-      <c r="S18" s="2" t="str">
+      <c r="T18" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87828588433687138</v>
+      </c>
+      <c r="U18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="U18" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1733389952906987</v>
-      </c>
-      <c r="V18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="2" t="str">
+      <c r="W18" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1040200890508012</v>
+      </c>
+      <c r="X18" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="Z18" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="Y18" s="2" t="str">
+      <c r="AA18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2815,7 +2989,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2823,86 +2997,94 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19">
+      <c r="H19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19" t="str">
+      <c r="J19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="J19" t="str">
+      <c r="L19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19">
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>30</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>148.72</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19">
+      <c r="R19" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="R19" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.0932868352223191</v>
-      </c>
-      <c r="S19" s="2" t="str">
+      <c r="T19" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.0742981847038984</v>
+      </c>
+      <c r="U19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="T19" s="3">
+        <v>Normal</v>
+      </c>
+      <c r="V19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="U19" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.96255695187019885</v>
-      </c>
-      <c r="V19" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19" s="2" t="str">
+      <c r="W19" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.90569069636769506</v>
+      </c>
+      <c r="X19" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="Z19" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="Y19" s="2" t="str">
+      <c r="AA19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2912,13 +3094,13 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal-High
-- **Material/Time (Higher better):** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2926,86 +3108,94 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20">
+      <c r="H20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="H20" t="str">
+      <c r="J20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="J20" t="str">
+      <c r="L20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20">
+      <c r="M20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>50</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>49.39</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20">
+      <c r="R20" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-Low</v>
+      </c>
+      <c r="S20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="R20" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.32606800348735832</v>
-      </c>
-      <c r="S20" s="2" t="str">
+      <c r="T20" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.32040472175379425</v>
+      </c>
+      <c r="U20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="U20" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0718203998091715</v>
-      </c>
-      <c r="V20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="2" t="str">
+      <c r="W20" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0084990424703455</v>
+      </c>
+      <c r="X20" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="Z20" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="Y20" s="2" t="str">
+      <c r="AA20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3021,85 +3211,93 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="H21" t="str">
+      <c r="J21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="J21" t="str">
+      <c r="L21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21">
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>12.33</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21">
+      <c r="R21" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="S21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="R21" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.14577157802964255</v>
-      </c>
-      <c r="S21" s="2" t="str">
+      <c r="T21" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.1432397579605198</v>
+      </c>
+      <c r="U21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="U21" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.59852376361078963</v>
-      </c>
-      <c r="V21" t="s">
-        <v>25</v>
-      </c>
-      <c r="W21" s="2" t="str">
+      <c r="W21" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.56316398027570336</v>
+      </c>
+      <c r="X21" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="Z21" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="Y21" s="2" t="str">
+      <c r="AA21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3110,90 +3308,98 @@
 - **Density Calculation:** % of layer before top shell layers
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="H22" t="str">
+      <c r="J22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="J22" t="str">
+      <c r="L22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22">
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>40</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>144.69999999999999</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22">
+      <c r="R22" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="R22" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2275501307759371</v>
-      </c>
-      <c r="S22" s="2" t="str">
+      <c r="T22" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2062295407201666</v>
+      </c>
+      <c r="U22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="U22" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.83410451302470801</v>
-      </c>
-      <c r="V22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" s="2" t="str">
+      <c r="W22" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.78482701286090395</v>
+      </c>
+      <c r="X22" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="Z22" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="Y22" s="2" t="str">
+      <c r="AA22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3204,90 +3410,98 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23">
+    <row r="23" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="J23" t="str">
+      <c r="L23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23">
+      <c r="M23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>148.55000000000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23">
+      <c r="R23" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="R23" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92258064516129035</v>
-      </c>
-      <c r="S23" s="2" t="str">
+      <c r="T23" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90655688919750022</v>
+      </c>
+      <c r="U23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="U23" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1393561309338132</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W23" s="2" t="str">
+      <c r="W23" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0720448755071696</v>
+      </c>
+      <c r="X23" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="Z23" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="Y23" s="2" t="str">
+      <c r="AA23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3303,9 +3517,315 @@
 </v>
       </c>
     </row>
+    <row r="24" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>149.94</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0023564803208824</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S24">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>496</v>
+      </c>
+      <c r="T24" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93482789405812916</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V24" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.3022983870967742</v>
+      </c>
+      <c r="W24" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0493520503677369</v>
+      </c>
+      <c r="X24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y24" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>zig-zag</v>
+      </c>
+      <c r="Z24" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AA24" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Zig Zag
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>149.84</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0016879752653129</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S25">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>494</v>
+      </c>
+      <c r="T25" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93105842674337869</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.30331983805668017</v>
+      </c>
+      <c r="W25" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0528977578702527</v>
+      </c>
+      <c r="X25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y25" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>coss-zag</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Coss Zag](#coss-zag)</v>
+      </c>
+      <c r="AA25" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Coss Zag
+Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>46</v>
+      </c>
+      <c r="P26">
+        <v>182.32</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.2188184173142809</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="S26">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>946</v>
+      </c>
+      <c r="T26" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.7829580398769964</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-High</v>
+      </c>
+      <c r="V26" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="W26" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.6690037639314409</v>
+      </c>
+      <c r="X26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y26" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>locked-zag</v>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AA26" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Locked Zag
+Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal-Low
+- **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls
+- **Material Usage:** Normal-High
+- **Print Time:** Extra-High
+- **Material/Time (Higher better):** Low
+![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
+</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
+  <conditionalFormatting sqref="T2:T26">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T23">
+  <conditionalFormatting sqref="V2:V26">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U23">
+  <conditionalFormatting sqref="W2:W26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>

--- a/print_settings/strength/infill_desc_calculator.xlsx
+++ b/print_settings/strength/infill_desc_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144B92D-6041-4F78-91EA-B288316198C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9342C-2BC8-4E65-A1F6-5FE50430102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="194">
   <si>
     <t>Concentric</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>2D Lattice</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>Quarter Cubic</t>
@@ -249,9 +243,6 @@
     <t>Material/Time</t>
   </si>
   <si>
-    <t>2D Honeycomb</t>
-  </si>
-  <si>
     <t>Ultra-Low</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
   </si>
   <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
-  </si>
-  <si>
     <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>ipGrid</t>
   </si>
   <si>
-    <t>ip2DLattice</t>
-  </si>
-  <si>
     <t>ipLine</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t>ipAlignedRectilinear</t>
   </si>
   <si>
-    <t>ip2DHoneycomb</t>
-  </si>
-  <si>
     <t>ip3DHoneycomb</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>grid</t>
   </si>
   <si>
-    <t>2dlattice</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -476,9 +455,6 @@
     <t>alignedrectilinear</t>
   </si>
   <si>
-    <t>2dhoneycomb</t>
-  </si>
-  <si>
     <t>3dhoneycomb</t>
   </si>
   <si>
@@ -551,9 +527,6 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
     <t>TPMS</t>
   </si>
   <si>
@@ -566,96 +539,12 @@
     <t>SVG</t>
   </si>
   <si>
-    <t>param_monotonic.svg</t>
-  </si>
-  <si>
-    <t>param_monotonicline.svg</t>
-  </si>
-  <si>
-    <t>param_concentric</t>
-  </si>
-  <si>
-    <t>param_zig-zag</t>
-  </si>
-  <si>
-    <t>param_grid</t>
-  </si>
-  <si>
-    <t>param_2dlattice</t>
-  </si>
-  <si>
-    <t>param_line</t>
-  </si>
-  <si>
-    <t>param_cubic</t>
-  </si>
-  <si>
-    <t>param_triangles</t>
-  </si>
-  <si>
-    <t>param_tri-hexagon</t>
-  </si>
-  <si>
-    <t>param_gyroid</t>
-  </si>
-  <si>
-    <t>param_tpmsd</t>
-  </si>
-  <si>
-    <t>param_honeycomb</t>
-  </si>
-  <si>
-    <t>param_adaptivecubic</t>
-  </si>
-  <si>
-    <t>param_alignedrectilinear</t>
-  </si>
-  <si>
-    <t>param_2dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_3dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_hilbertcurve</t>
-  </si>
-  <si>
-    <t>param_archimedeanchords</t>
-  </si>
-  <si>
-    <t>param_octagramspiral</t>
-  </si>
-  <si>
-    <t>param_supportcubic</t>
-  </si>
-  <si>
-    <t>param_lightning</t>
-  </si>
-  <si>
-    <t>param_crosshatch</t>
-  </si>
-  <si>
-    <t>param_quartercubic</t>
-  </si>
-  <si>
-    <t>param_zigzag</t>
-  </si>
-  <si>
-    <t>param_lockedzag</t>
-  </si>
-  <si>
     <t>SVG Link</t>
   </si>
   <si>
-    <t>param_crosszag</t>
-  </si>
-  <si>
     <t>Cubic / Support</t>
   </si>
   <si>
-    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
-  </si>
-  <si>
     <t>[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.</t>
   </si>
   <si>
@@ -663,6 +552,75 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>ipTpmsFK</t>
+  </si>
+  <si>
+    <t>tpmsfk</t>
+  </si>
+  <si>
+    <t>TPMS-FK</t>
+  </si>
+  <si>
+    <t>nameMD</t>
+  </si>
+  <si>
+    <t>20mm x 20mm x 20mm</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.</t>
+  </si>
+  <si>
+    <t>Is Ironing</t>
+  </si>
+  <si>
+    <t>Infill Image</t>
+  </si>
+  <si>
+    <t>10mm x 10mm x 10mm</t>
+  </si>
+  <si>
+    <t>100% Image</t>
+  </si>
+  <si>
+    <t>100% Cube</t>
+  </si>
+  <si>
+    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.</t>
+  </si>
+  <si>
+    <t>53.13mm x 53.13mm x 53.13mm</t>
+  </si>
+  <si>
+    <t>Applies to</t>
+  </si>
+  <si>
+    <t>ipLateralLattice</t>
+  </si>
+  <si>
+    <t>ipLateralHoneycomb</t>
+  </si>
+  <si>
+    <t>Lateral Honeycomb</t>
+  </si>
+  <si>
+    <t>Lateral Lattice</t>
+  </si>
+  <si>
+    <t>Lateral</t>
+  </si>
+  <si>
+    <t>lateral-honeycomb</t>
+  </si>
+  <si>
+    <t>lateral-lattice</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -715,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -729,12 +687,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -749,6 +736,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -969,68 +957,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AJ31">
-  <autoFilter ref="E1:AJ31" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AJ31">
-    <sortCondition ref="E1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AL32">
+  <autoFilter ref="E1:AL32" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AL32">
+    <sortCondition ref="E1:E32"/>
   </sortState>
-  <tableColumns count="32">
+  <tableColumns count="34">
     <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Order"/>
     <tableColumn id="27" xr3:uid="{6EDDF2A1-C22E-40EB-B691-74F6EDAEF4D3}" name="Is Infill"/>
     <tableColumn id="28" xr3:uid="{B77876BB-7641-40A4-87A8-999F2ECFE38D}" name="Is Surface"/>
+    <tableColumn id="22" xr3:uid="{2AFD1782-FD71-43C4-B799-04BFBE937492}" name="Is Ironing"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="name" totalsRowLabel="Total"/>
     <tableColumn id="32" xr3:uid="{A02F4DC8-DB89-4104-8C6F-95945DF0135D}" name="Group"/>
     <tableColumn id="24" xr3:uid="{6521A458-B14C-427C-865F-121955BAA369}" name="ip"/>
     <tableColumn id="25" xr3:uid="{956F45F2-2962-4E6E-81C2-F10A02B550B8}" name="infill"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="26" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="24">
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="34" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="22">
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="29" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="17" dataCellStyle="Porcentaje">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="25" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="22" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="13" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="21" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="17" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="16" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="6">
+    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="15" dataCellStyle="Porcentaje"/>
+    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="14">
       <calculatedColumnFormula>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="13" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="4" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="12" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1038,16 +1032,18 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,8 +1052,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D6607BDC-D4C6-47C9-9EE3-9567C17CAC8B}" name="Param"/>
     <tableColumn id="2" xr3:uid="{2F1A7E11-D2B5-49D3-AA97-1EB89A9A7CDE}" name="Value"/>
@@ -1067,12 +1063,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:C20" totalsRowShown="0">
-  <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A16:C25" totalsRowShown="0">
+  <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="8" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}" name="Tabla4" displayName="Tabla4" ref="AN1:AT32" totalsRowShown="0">
+  <autoFilter ref="AN1:AT32" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="7">
+      <calculatedColumnFormula>Infill[[#This Row],[SVG Link]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="6">
+      <calculatedColumnFormula>Infill[[#This Row],[Pattern]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="5">
+      <calculatedColumnFormula>Infill[[#This Row],[Applies to]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="4">
+      <calculatedColumnFormula>Infill[[#This Row],[X-Y Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="3">
+      <calculatedColumnFormula>Infill[[#This Row],[Z Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="2">
+      <calculatedColumnFormula>Infill[[#This Row],[Material/Time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="1">
+      <calculatedColumnFormula>Infill[[#This Row],[Print Time]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,163 +1421,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.42578125" customWidth="1"/>
-    <col min="34" max="34" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>79</v>
-      </c>
       <c r="AB1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s">
         <v>174</v>
       </c>
       <c r="AE1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="AF1" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="AG1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AJ1" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1562,90 +1623,107 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="U2" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>53</v>
+      </c>
+      <c r="U2">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="V2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="str">
+        <v>0.99827859948190867</v>
+      </c>
+      <c r="W2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W2">
+        <v>Normal</v>
+      </c>
+      <c r="X2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X2" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y2" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y2" s="2" t="str">
+        <v>0.87710721510451795</v>
+      </c>
+      <c r="Z2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
+        <v>0.31570824524312902</v>
+      </c>
+      <c r="AB2" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="str">
+        <v>1.1101963814393199</v>
+      </c>
+      <c r="AC2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC2" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic</v>
       </c>
-      <c r="AD2" t="s">
-        <v>175</v>
-      </c>
       <c r="AE2" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonic</v>
+      </c>
+      <c r="AF2" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonic.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF2" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic](#monotonic)</v>
       </c>
-      <c r="AG2" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH2" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI2" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1653,29 +1731,72 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH2" t="str">
+        <v xml:space="preserve">## Monotonic
+[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic.png?raw=true)
+</v>
+      </c>
+      <c r="AJ2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonic", ipMonotonic },</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonic");</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AL2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
       </c>
+      <c r="AN2" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic](#monotonic)</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS2" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT2" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1686,90 +1807,107 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>161</v>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="str">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="U3" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>147.77000000000001</v>
+      </c>
+      <c r="V3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="str">
+        <v>0.98784992061502463</v>
+      </c>
+      <c r="W3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W3">
+        <v>Normal</v>
+      </c>
+      <c r="X3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X3" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y3" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y3" s="2" t="str">
+        <v>1.0032029669588671</v>
+      </c>
+      <c r="Z3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="Z3" s="3">
+        <v>Normal</v>
+      </c>
+      <c r="AA3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
+        <v>0.27314232902033275</v>
+      </c>
+      <c r="AB3" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="str">
+        <v>0.96051221298561007</v>
+      </c>
+      <c r="AC3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC3" s="2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="AD3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic-line</v>
       </c>
-      <c r="AD3" t="s">
-        <v>176</v>
-      </c>
       <c r="AE3" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonicline</v>
+      </c>
+      <c r="AF3" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonicline.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF3" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AG3" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic line](#monotonic-line)</v>
       </c>
-      <c r="AG3" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH3" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI3" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1777,26 +1915,69 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH3" t="str">
+        <v xml:space="preserve">## Monotonic line
+[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic-line.png?raw=true)
+</v>
+      </c>
+      <c r="AJ3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonicline", ipMonotonicLine },</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonicline");</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AL3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
       </c>
+      <c r="AN3" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic line](#monotonic-line)</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1810,96 +1991,108 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4">
+      <c r="R4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>148.6</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91786529114175186</v>
-      </c>
-      <c r="Y4" s="2" t="str">
+        <v>0.90306810519217806</v>
+      </c>
+      <c r="Z4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0591933211831519</v>
-      </c>
-      <c r="AB4" t="str">
+        <v>1.073009905838558</v>
+      </c>
+      <c r="AC4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC4" s="2" t="str">
+      <c r="AD4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="AD4" t="s">
-        <v>178</v>
-      </c>
       <c r="AE4" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_rectilinear</v>
+      </c>
+      <c r="AF4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zig-zag.svg?raw=true)</v>
-      </c>
-      <c r="AF4" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AG4" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="AG4" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH4" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI4" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1907,9 +2100,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Rectilinear
+        <v xml:space="preserve">## Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
@@ -1917,28 +2112,62 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AJ4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "rectilinear", ipRectilinear },</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AK4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("rectilinear");</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AL4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Rectilinear"));</v>
       </c>
+      <c r="AN4" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Rectilinear](#rectilinear)</v>
+      </c>
+      <c r="AP4" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR4" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1949,96 +2178,107 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
       <c r="K5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
+      <c r="R5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
         <v>148.6</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91975002479912704</v>
-      </c>
-      <c r="Y5" s="2" t="str">
+        <v>0.90492245448415376</v>
+      </c>
+      <c r="Z5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0570228430659732</v>
-      </c>
-      <c r="AB5" t="str">
+        <v>1.0708111150479054</v>
+      </c>
+      <c r="AC5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC5" s="2" t="str">
+      <c r="AD5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="AD5" t="s">
-        <v>189</v>
-      </c>
       <c r="AE5" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_alignedrectilinear</v>
+      </c>
+      <c r="AF5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
       </c>
-      <c r="AF5" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG5" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="AG5" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH5" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI5" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2046,9 +2286,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Aligned Rectilinear
+        <v xml:space="preserve">## Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
 Recommended with layer anchoring to improve not perpendicular strength.
 - **Horizontal Strength (X-Y):** Normal-Low
@@ -2057,28 +2299,60 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AJ5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "alignedrectilinear", ipAlignedRectilinear },</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AK5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("alignedrectilinear");</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AL5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Aligned Rectilinear"));</v>
       </c>
+      <c r="AN5" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
+      </c>
+      <c r="AP5" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR5" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2089,96 +2363,106 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>85</v>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
       <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6">
+        <v>121</v>
+      </c>
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6">
+      <c r="R6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6">
         <v>8</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>149.94</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0023564803208824</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>496</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93482789405812916</v>
-      </c>
-      <c r="Y6" s="2" t="str">
+        <v>0.91975724881995957</v>
+      </c>
+      <c r="Z6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z6" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3022983870967742</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0493520503677369</v>
-      </c>
-      <c r="AB6" t="str">
+        <v>1.0630402611478378</v>
+      </c>
+      <c r="AC6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC6" s="2" t="str">
+      <c r="AD6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>zig-zag</v>
       </c>
-      <c r="AD6" t="s">
-        <v>199</v>
-      </c>
       <c r="AE6" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_zigzag</v>
+      </c>
+      <c r="AF6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
       </c>
-      <c r="AF6" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG6" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AG6" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH6" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI6" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2186,38 +2470,70 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Zig Zag
+        <v xml:space="preserve">## Zig Zag
 Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AJ6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "zigzag", ipZigZag },</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AK6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("zigzag");</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AL6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Zig Zag"));</v>
       </c>
+      <c r="AN6" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AP6" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR6" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS6" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT6" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2228,96 +2544,106 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
       <c r="K7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7">
+      <c r="R7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>149.84</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0016879752653129</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>494</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93105842674337869</v>
-      </c>
-      <c r="Y7" s="2" t="str">
+        <v>0.91604855023600817</v>
+      </c>
+      <c r="Z7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z7" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30331983805668017</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0528977578702527</v>
-      </c>
-      <c r="AB7" t="str">
+        <v>1.0666322204222369</v>
+      </c>
+      <c r="AC7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AD7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-zag</v>
       </c>
-      <c r="AD7" t="s">
-        <v>202</v>
-      </c>
       <c r="AE7" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosszag</v>
+      </c>
+      <c r="AF7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
       </c>
-      <c r="AF7" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG7" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Zag](#cross-zag)</v>
       </c>
-      <c r="AG7" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH7" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI7" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2325,35 +2651,67 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Zag
+        <v xml:space="preserve">## Cross Zag
 Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH7" t="str">
+      <c r="AJ7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosszag", ipCrossZag },</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AK7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosszag");</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AL7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Zag"));</v>
       </c>
+      <c r="AN7" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Zag](#cross-zag)</v>
+      </c>
+      <c r="AP7" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR7" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT7" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2367,96 +2725,106 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>86</v>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
       <c r="K8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8">
+      <c r="R8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8">
         <v>15</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>46</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>182.32</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2188184173142809</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>946</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.7829580398769964</v>
-      </c>
-      <c r="Y8" s="2" t="str">
+        <v>1.7542144302090359</v>
+      </c>
+      <c r="Z8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-High</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.6690037639314409</v>
-      </c>
-      <c r="AB8" t="str">
+        <v>0.67773054397648413</v>
+      </c>
+      <c r="AC8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC8" s="2" t="str">
+      <c r="AD8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>locked-zag</v>
       </c>
-      <c r="AD8" t="s">
-        <v>200</v>
-      </c>
       <c r="AE8" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lockedzag</v>
+      </c>
+      <c r="AF8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
       </c>
-      <c r="AF8" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG8" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AG8" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH8" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI8" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2464,9 +2832,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Locked Zag
+        <v xml:space="preserve">## Locked Zag
 Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
@@ -2474,25 +2844,55 @@
 - **Material Usage:** Normal-High
 - **Print Time:** Extra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH8" t="str">
+      <c r="AJ8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lockedzag", ipLockedZag },</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AK8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lockedzag");</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AL8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Locked Zag"));</v>
       </c>
+      <c r="AN8" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AP8" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR8" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT8" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-High</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2506,96 +2906,106 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9">
+      <c r="R9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>49</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>154.68</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88394008530899715</v>
-      </c>
-      <c r="Y9" s="2" t="str">
+        <v>0.86968981793661504</v>
+      </c>
+      <c r="Z9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1448450378706885</v>
-      </c>
-      <c r="AB9" t="str">
+        <v>1.1597789012804325</v>
+      </c>
+      <c r="AC9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC9" s="2" t="str">
+      <c r="AD9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="AD9" t="s">
-        <v>181</v>
-      </c>
       <c r="AE9" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_line</v>
+      </c>
+      <c r="AF9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
       </c>
-      <c r="AF9" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG9" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="AG9" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH9" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI9" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2603,9 +3013,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Line
+        <v xml:space="preserve">## Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -2613,23 +3025,59 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 </v>
       </c>
-      <c r="AH9" t="str">
+      <c r="AJ9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "line", ipLine },</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AK9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("line");</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AL9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Line"));</v>
       </c>
+      <c r="AN9" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Line](#line)</v>
+      </c>
+      <c r="AP9" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR9" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT9" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
       <c r="E10">
         <v>8</v>
       </c>
@@ -2639,96 +3087,106 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>169</v>
-      </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10">
+      <c r="R10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>148.87</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91598055748437657</v>
-      </c>
-      <c r="Y10" s="2" t="str">
+        <v>0.90121375590020236</v>
+      </c>
+      <c r="Z10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0633012012784473</v>
-      </c>
-      <c r="AB10" t="str">
+        <v>1.0771713709328861</v>
+      </c>
+      <c r="AC10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC10" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="AD10" t="s">
-        <v>179</v>
-      </c>
       <c r="AE10" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_grid</v>
+      </c>
+      <c r="AF10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
       </c>
-      <c r="AF10" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG10" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="AG10" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH10" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI10" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2736,41 +3194,70 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Grid
+        <v xml:space="preserve">## Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AJ10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "grid", ipGrid },</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AK10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("grid");</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AL10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Grid"));</v>
       </c>
+      <c r="AN10" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Grid](#grid)</v>
+      </c>
+      <c r="AP10" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR10" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT10" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2781,96 +3268,106 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11">
+      <c r="R11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>50</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>147.55000000000001</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y11" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0897496578170667</v>
-      </c>
-      <c r="AB11" t="str">
+        <v>1.1039648327991096</v>
+      </c>
+      <c r="AC11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC11" s="2" t="str">
+      <c r="AD11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="AD11" t="s">
-        <v>183</v>
-      </c>
       <c r="AE11" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_triangles</v>
+      </c>
+      <c r="AF11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
       </c>
-      <c r="AF11" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG11" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="AG11" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH11" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI11" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2878,9 +3375,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Triangles
+        <v xml:space="preserve">## Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal
@@ -2888,31 +3387,58 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 </v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AJ11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "triangles", ipTriangles },</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AK11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("triangles");</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AL11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Triangles"));</v>
       </c>
+      <c r="AN11" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Triangles](#triangles)</v>
+      </c>
+      <c r="AP11" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR11" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT11" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
+    <row r="12" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2923,96 +3449,106 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>7</v>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12">
+      <c r="R12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>43</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>148.53</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87263168336474561</v>
-      </c>
-      <c r="Y12" s="2" t="str">
+        <v>0.85856372218476062</v>
+      </c>
+      <c r="Z12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1135727002160909</v>
-      </c>
-      <c r="AB12" t="str">
+        <v>1.1280986334662162</v>
+      </c>
+      <c r="AC12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC12" s="2" t="str">
+      <c r="AD12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="AD12" t="s">
-        <v>184</v>
-      </c>
       <c r="AE12" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tri-hexagon</v>
+      </c>
+      <c r="AF12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
       </c>
-      <c r="AF12" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG12" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="AG12" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH12" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI12" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3020,9 +3556,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Tri-hexagon
+        <v xml:space="preserve">## Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal-High
@@ -3030,32 +3568,53 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 </v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AJ12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tri-hexagon", ipStars },</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AK12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tri-hexagon");</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AL12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Tri-hexagon"));</v>
       </c>
+      <c r="AN12" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Tri-hexagon](#tri-hexagon)</v>
+      </c>
+      <c r="AP12" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR12" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT12" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
+    <row r="13" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>11</v>
       </c>
@@ -3065,96 +3624,106 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>5</v>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13">
+      <c r="R13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>50</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>148.54</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="W13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y13" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0970614311904239</v>
-      </c>
-      <c r="AB13" t="str">
+        <v>1.111371984167941</v>
+      </c>
+      <c r="AC13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC13" s="2" t="str">
+      <c r="AD13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="AD13" t="s">
-        <v>182</v>
-      </c>
       <c r="AE13" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_cubic</v>
+      </c>
+      <c r="AF13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
       </c>
-      <c r="AF13" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG13" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="AG13" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH13" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI13" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3162,9 +3731,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cubic
+        <v xml:space="preserve">## Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3172,32 +3743,53 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AJ13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "cubic", ipCubic },</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AK13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("cubic");</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AL13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cubic"));</v>
       </c>
+      <c r="AN13" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cubic](#cubic)</v>
+      </c>
+      <c r="AP13" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR13" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS13" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT13" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>12</v>
       </c>
@@ -3207,96 +3799,106 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14">
+      <c r="R14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>29</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>97.57</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="W14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.62007737327646073</v>
-      </c>
-      <c r="Y14" s="2" t="str">
+        <v>0.61008091706001355</v>
+      </c>
+      <c r="Z14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0294512670108069</v>
-      </c>
-      <c r="AB14" t="str">
+        <v>1.0428798831990038</v>
+      </c>
+      <c r="AC14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC14" s="2" t="str">
+      <c r="AD14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="AD14" t="s">
-        <v>188</v>
-      </c>
       <c r="AE14" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_adaptivecubic</v>
+      </c>
+      <c r="AF14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
       </c>
-      <c r="AF14" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG14" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="AG14" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH14" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI14" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3304,9 +3906,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Adaptive Cubic
+        <v xml:space="preserve">## Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -3314,32 +3918,53 @@
 - **Material Usage:** Low
 - **Print Time:** Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH14" t="str">
+      <c r="AJ14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "adaptivecubic", ipAdaptiveCubic },</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AK14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("adaptivecubic");</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AL14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Adaptive Cubic"));</v>
       </c>
+      <c r="AN14" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Adaptive Cubic](#adaptive-cubic)</v>
+      </c>
+      <c r="AP14" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR14" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS14" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Low</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>13</v>
       </c>
@@ -3349,96 +3974,106 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>43</v>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15">
+      <c r="R15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>148.55000000000001</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="W15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90655688919750022</v>
-      </c>
-      <c r="Y15" s="2" t="str">
+        <v>0.89194200944032376</v>
+      </c>
+      <c r="Z15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0720448755071696</v>
-      </c>
-      <c r="AB15" t="str">
+        <v>1.0860291015031323</v>
+      </c>
+      <c r="AC15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC15" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="AD15" t="s">
-        <v>198</v>
-      </c>
       <c r="AE15" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_quartercubic</v>
+      </c>
+      <c r="AF15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
       </c>
-      <c r="AF15" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG15" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="AG15" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH15" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI15" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3446,41 +4081,73 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Quarter Cubic
+        <v xml:space="preserve">## Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH15" t="str">
+      <c r="AJ15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "quartercubic", ipQuarterCubic },</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AK15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("quartercubic");</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AL15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Quarter Cubic"));</v>
       </c>
+      <c r="AN15" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Quarter Cubic](#quarter-cubic)</v>
+      </c>
+      <c r="AP15" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR15" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS15" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT15" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.075</v>
+    <row r="16" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3491,96 +4158,106 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16">
+      <c r="R16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>50</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>49.39</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.32040472175379425</v>
-      </c>
-      <c r="Y16" s="2" t="str">
+        <v>0.31523937963587323</v>
+      </c>
+      <c r="Z16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0084990424703455</v>
-      </c>
-      <c r="AB16" t="str">
+        <v>1.0216543486042844</v>
+      </c>
+      <c r="AC16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC16" s="2" t="str">
+      <c r="AD16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="AD16" t="s">
-        <v>195</v>
-      </c>
       <c r="AE16" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_supportcubic</v>
+      </c>
+      <c r="AF16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
       </c>
-      <c r="AF16" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG16" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="AG16" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH16" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI16" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3588,9 +4265,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Support Cubic
+        <v xml:space="preserve">## Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3598,31 +4277,61 @@
 - **Material Usage:** Extra-Low
 - **Print Time:** Extra-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AJ16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "supportcubic", ipSupportCubic },</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AK16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("supportcubic");</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AL16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Support Cubic"));</v>
       </c>
+      <c r="AN16" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Support Cubic](#support-cubic)</v>
+      </c>
+      <c r="AP16" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR16" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS16" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT16" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-Low</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17" s="7">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3633,96 +4342,106 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17">
+      <c r="R17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>12.33</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.1432397579605198</v>
-      </c>
-      <c r="Y17" s="2" t="str">
+        <v>0.1409305461901551</v>
+      </c>
+      <c r="Z17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.56316398027570336</v>
-      </c>
-      <c r="AB17" t="str">
+        <v>0.57051013952042295</v>
+      </c>
+      <c r="AC17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC17" s="2" t="str">
+      <c r="AD17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="AD17" t="s">
-        <v>196</v>
-      </c>
       <c r="AE17" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lightning</v>
+      </c>
+      <c r="AF17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
       </c>
-      <c r="AF17" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG17" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="AG17" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH17" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI17" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3730,9 +4449,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Lightning
+        <v xml:space="preserve">## Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3740,31 +4461,61 @@
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
-      <c r="AH17" t="str">
+      <c r="AJ17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lightning", ipLightning },</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AK17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lightning");</v>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AL17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lightning"));</v>
       </c>
+      <c r="AN17" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lightning](#lightning)</v>
+      </c>
+      <c r="AP17" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR17" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS17" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT17" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -3775,96 +4526,106 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18">
         <v>6</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18">
+      <c r="R18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18">
         <v>17</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>36</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>190.54</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.9902787421882751</v>
-      </c>
-      <c r="Y18" s="2" t="str">
+        <v>1.9581928523263656</v>
+      </c>
+      <c r="Z18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.62633636585837626</v>
-      </c>
-      <c r="AB18" t="str">
+        <v>0.63450657355188322</v>
+      </c>
+      <c r="AC18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC18" s="2" t="str">
+      <c r="AD18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="AD18" t="s">
-        <v>187</v>
-      </c>
       <c r="AE18" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_honeycomb</v>
+      </c>
+      <c r="AF18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
       </c>
-      <c r="AF18" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG18" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="AG18" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH18" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI18" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3872,9 +4633,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Honeycomb
+        <v xml:space="preserve">## Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3882,31 +4645,61 @@
 - **Material Usage:** High
 - **Print Time:** Ultra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH18" t="str">
+      <c r="AJ18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "honeycomb", ipHoneycomb },</v>
       </c>
-      <c r="AI18" t="str">
+      <c r="AK18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("honeycomb");</v>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AL18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Honeycomb"));</v>
       </c>
+      <c r="AN18" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO18" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Honeycomb](#honeycomb)</v>
+      </c>
+      <c r="AP18" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR18" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS18" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT18" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-High</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7">
-        <v>1.85</v>
+        <v>0.75</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -3917,96 +4710,106 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19">
+      <c r="R19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>28</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>123.92</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="W19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.4097807757166949</v>
-      </c>
-      <c r="Y19" s="2" t="str">
+        <v>1.3870532703978422</v>
+      </c>
+      <c r="Z19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.57507593248046729</v>
-      </c>
-      <c r="AB19" t="str">
+        <v>0.58257747648145064</v>
+      </c>
+      <c r="AC19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC19" s="2" t="str">
+      <c r="AD19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="AD19" t="s">
-        <v>191</v>
-      </c>
       <c r="AE19" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_3dhoneycomb</v>
+      </c>
+      <c r="AF19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AF19" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG19" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="AG19" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH19" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI19" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4014,9 +4817,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 3D Honeycomb
+        <v xml:space="preserve">## 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -4024,31 +4829,61 @@
 - **Material Usage:** Normal-Low
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH19" t="str">
+      <c r="AJ19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "3dhoneycomb", ip3DHoneycomb },</v>
       </c>
-      <c r="AI19" t="str">
+      <c r="AK19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("3dhoneycomb");</v>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AL19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("3D Honeycomb"));</v>
       </c>
+      <c r="AN19" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO19" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[3D Honeycomb](#3d-honeycomb)</v>
+      </c>
+      <c r="AP19" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR19" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS19" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT19" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7">
-        <v>9.99</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4059,96 +4894,106 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>70</v>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20">
+      <c r="R20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>147.52000000000001</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="W20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90844162285487551</v>
-      </c>
-      <c r="Y20" s="2" t="str">
+        <v>0.89379635873229946</v>
+      </c>
+      <c r="Z20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.062402908289779</v>
-      </c>
-      <c r="AB20" t="str">
+        <v>1.0762613602144371</v>
+      </c>
+      <c r="AC20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC20" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-honeycomb</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>190</v>
+        <v>lateral-honeycomb</v>
       </c>
       <c r="AE20" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lateral-honeycomb</v>
+      </c>
+      <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dhoneycomb.svg?raw=true)</v>
-      </c>
-      <c r="AF20" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[2D Honeycomb](#2d-honeycomb)</v>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
       </c>
       <c r="AG20" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
+      </c>
+      <c r="AH20" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI20" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4156,33 +5001,74 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
+        <v xml:space="preserve">## Lateral Honeycomb
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
-![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AJ20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dhoneycomb", ip2DHoneycomb },</v>
-      </c>
-      <c r="AI20" t="str">
+        <v xml:space="preserve"> { "lateral-honeycomb", ipLateralHoneycomb },</v>
+      </c>
+      <c r="AK20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dhoneycomb");</v>
-      </c>
-      <c r="AJ20" t="str">
+        <v>def-&gt;enum_values.push_back("lateral-honeycomb");</v>
+      </c>
+      <c r="AL20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Honeycomb"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Honeycomb"));</v>
+      </c>
+      <c r="AN20" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO20" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
+      </c>
+      <c r="AP20" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR20" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS20" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT20" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.075</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
       <c r="E21">
         <v>19</v>
       </c>
@@ -4192,96 +5078,106 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21">
+      <c r="R21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>148.54</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91221109016962609</v>
-      </c>
-      <c r="Y21" s="2" t="str">
+        <v>0.89750505731625085</v>
+      </c>
+      <c r="Z21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AB21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0653282492964862</v>
-      </c>
-      <c r="AB21" t="str">
+        <v>1.079224860658951</v>
+      </c>
+      <c r="AC21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC21" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-lattice</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>180</v>
+        <v>lateral-lattice</v>
       </c>
       <c r="AE21" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lateral-lattice</v>
+      </c>
+      <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dlattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dlattice.svg?raw=true)</v>
-      </c>
-      <c r="AF21" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[2D Lattice](#2d-lattice)</v>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
       </c>
       <c r="AG21" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
+      </c>
+      <c r="AH21" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI21" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4289,33 +5185,74 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Lattice
+        <v xml:space="preserve">## Lateral Lattice
 Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
-![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-lattice.png?raw=true)
 </v>
       </c>
-      <c r="AH21" t="str">
+      <c r="AJ21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dlattice", ip2DLattice },</v>
-      </c>
-      <c r="AI21" t="str">
+        <v xml:space="preserve"> { "lateral-lattice", ipLateralLattice },</v>
+      </c>
+      <c r="AK21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dlattice");</v>
-      </c>
-      <c r="AJ21" t="str">
+        <v>def-&gt;enum_values.push_back("lateral-lattice");</v>
+      </c>
+      <c r="AL21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Lattice"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Lattice"));</v>
+      </c>
+      <c r="AN21" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
+      </c>
+      <c r="AO21" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
+      </c>
+      <c r="AP21" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR21" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS21" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT21" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
       <c r="E22">
         <v>20</v>
       </c>
@@ -4325,96 +5262,106 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>19</v>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22">
+        <v>119</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22">
         <v>5</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22">
+      <c r="R22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22">
         <v>10</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>40</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>144.69999999999999</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2062295407201666</v>
-      </c>
-      <c r="Y22" s="2" t="str">
+        <v>1.1867835468644641</v>
+      </c>
+      <c r="Z22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AB22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.78482701286090395</v>
-      </c>
-      <c r="AB22" t="str">
+        <v>0.79506464242878072</v>
+      </c>
+      <c r="AC22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC22" s="2" t="str">
+      <c r="AD22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="AD22" t="s">
-        <v>197</v>
-      </c>
       <c r="AE22" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosshatch</v>
+      </c>
+      <c r="AF22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
       </c>
-      <c r="AF22" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG22" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="AG22" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH22" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI22" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4422,9 +5369,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Hatch
+        <v xml:space="preserve">## Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
 Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
@@ -4433,23 +5382,62 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AJ22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosshatch", ipCrossHatch },</v>
       </c>
-      <c r="AI22" t="str">
+      <c r="AK22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosshatch");</v>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AL22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Hatch"));</v>
       </c>
+      <c r="AN22" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
+      </c>
+      <c r="AO22" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Hatch](#cross-hatch)</v>
+      </c>
+      <c r="AP22" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR22" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS22" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT22" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
       <c r="E23">
         <v>21</v>
       </c>
@@ -4459,96 +5447,106 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
+      <c r="H23" t="b">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23">
         <v>6</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23">
+      <c r="R23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S23">
         <v>11</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>29</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>151.01</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="W23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2985814899315544</v>
-      </c>
-      <c r="Y23" s="2" t="str">
+        <v>1.2776466621712745</v>
+      </c>
+      <c r="Z23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AB23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.76080239498326518</v>
-      </c>
-      <c r="AB23" t="str">
+        <v>0.77072663684364651</v>
+      </c>
+      <c r="AC23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC23" s="2" t="str">
+      <c r="AD23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="AD23" t="s">
-        <v>186</v>
-      </c>
       <c r="AE23" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsd</v>
+      </c>
+      <c r="AF23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
       </c>
-      <c r="AF23" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG23" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="AG23" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH23" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI23" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4556,9 +5554,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### TPMS-D
+        <v xml:space="preserve">## TPMS-D
 Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4566,23 +5566,62 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AJ23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tpmsd", ipTpmsD },</v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AK23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tpmsd");</v>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AL23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-D"));</v>
       </c>
+      <c r="AN23" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
+      </c>
+      <c r="AO23" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-D](#tpms-d)</v>
+      </c>
+      <c r="AP23" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ23" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR23" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS23" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
       <c r="E24">
         <v>22</v>
       </c>
@@ -4592,96 +5631,106 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>8</v>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
         <v>171</v>
       </c>
-      <c r="J24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24" t="str">
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
+        <v>Normal-High</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
         <v>49</v>
       </c>
-      <c r="T24">
-        <v>141.77000000000001</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="U24">
+        <v>149.02000000000001</v>
+      </c>
+      <c r="V24" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0.94773961728085576</v>
-      </c>
-      <c r="V24" s="2" t="str">
+        <v>0.99620623380964324</v>
+      </c>
+      <c r="W24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>649</v>
-      </c>
-      <c r="X24" s="2">
+        <v>769</v>
+      </c>
+      <c r="Y24" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.223192143636544</v>
-      </c>
-      <c r="Y24" s="2" t="str">
+        <v>1.4259946055293324</v>
+      </c>
+      <c r="Z24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="Z24" s="3">
+        <v>High</v>
+      </c>
+      <c r="AA24" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0.21844375963020032</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0.1937841352405722</v>
+      </c>
+      <c r="AB24" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.75827201481100404</v>
-      </c>
-      <c r="AB24" t="str">
+        <v>0.68144702891351949</v>
+      </c>
+      <c r="AC24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="AC24" s="2" t="str">
+        <v>Low</v>
+      </c>
+      <c r="AD24" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>gyroid</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>185</v>
+        <v>tpms-fk</v>
       </c>
       <c r="AE24" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsfk</v>
+      </c>
+      <c r="AF24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
-      </c>
-      <c r="AF24" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Gyroid](#gyroid)</v>
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
       </c>
       <c r="AG24" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AH24" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI24" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4689,9 +5738,195 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Gyroid
+        <v xml:space="preserve">## TPMS-FK
+Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** High
+- **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-tpms-fk](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-fk.png?raw=true)
+</v>
+      </c>
+      <c r="AJ24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
+        <v xml:space="preserve"> { "tpmsfk", ipTpmsFK },</v>
+      </c>
+      <c r="AK24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
+        <v>def-&gt;enum_values.push_back("tpmsfk");</v>
+      </c>
+      <c r="AL24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
+        <v>def-&gt;enum_labels.push_back(L("TPMS-FK"));</v>
+      </c>
+      <c r="AN24" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
+      </c>
+      <c r="AO24" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AP24" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ24" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR24" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS24" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>49</v>
+      </c>
+      <c r="U25">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="V25" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0.94773961728085576</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="X25">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>649</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2034726904922455</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.21844375963020032</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76816324927683211</v>
+      </c>
+      <c r="AC25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AD25" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
+        <v>gyroid</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_gyroid</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AG25" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AH25" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI25" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
+","")</f>
+        <v xml:space="preserve">## Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4699,122 +5934,164 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AJ25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "gyroid", ipGyroid },</v>
       </c>
-      <c r="AI24" t="str">
+      <c r="AK25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("gyroid");</v>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AL25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Gyroid"));</v>
       </c>
+      <c r="AN25" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AP25" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ25" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR25" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS25" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25" t="b">
+    <row r="26" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="J26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="5">
         <v>2</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R25">
+      <c r="R26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26">
         <v>8</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>13</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>158.77000000000001</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V26" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="W26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y26" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.92917369308600339</v>
-      </c>
-      <c r="Y25" s="2" t="str">
+        <v>0.91419420094403236</v>
+      </c>
+      <c r="Z26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z25" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA26" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB26" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1179101798703965</v>
-      </c>
-      <c r="AB25" t="str">
+        <v>1.1324926931174273</v>
+      </c>
+      <c r="AC26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC25" s="2" t="str">
+      <c r="AD26" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="AD25" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE25" t="str">
+      <c r="AE26" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_concentric</v>
+      </c>
+      <c r="AF26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
       </c>
-      <c r="AF25" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG26" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="AG25" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH26" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI26" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4822,132 +6099,179 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Concentric
+        <v xml:space="preserve">## Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 </v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AJ26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "concentric", ipConcentric },</v>
       </c>
-      <c r="AI25" t="str">
+      <c r="AK26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("concentric");</v>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AL26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Concentric"));</v>
       </c>
+      <c r="AN26" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Concentric](#concentric)</v>
+      </c>
+      <c r="AP26" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR26" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS26" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT26" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" ht="180" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" t="b">
+    <row r="27" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>4</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26">
+      <c r="R27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S27">
         <v>13</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>24</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>148.63</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V27" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="W27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y27" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.5153258605297093</v>
-      </c>
-      <c r="Y26" s="2" t="str">
+        <v>1.4908968307484829</v>
+      </c>
+      <c r="Z27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA27" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AB27" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.64170557810266515</v>
-      </c>
-      <c r="AB26" t="str">
+        <v>0.6500762685766176</v>
+      </c>
+      <c r="AC27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC26" s="2" t="str">
+      <c r="AD27" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="AD26" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE26" t="str">
+      <c r="AE27" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_hilbertcurve</v>
+      </c>
+      <c r="AF27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
       </c>
-      <c r="AF26" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG27" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="AG26" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH27" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI27" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4955,9 +6279,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Hilbert Curve
+        <v xml:space="preserve">## Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
 - **Horizontal Strength (X-Y):** Low
@@ -4966,122 +6292,165 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AJ27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "hilbertcurve", ipHilbertCurve },</v>
       </c>
-      <c r="AI26" t="str">
+      <c r="AK27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("hilbertcurve");</v>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AL27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Hilbert Curve"));</v>
       </c>
+      <c r="AN27" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Hilbert Curve](#hilbert-curve)</v>
+      </c>
+      <c r="AP27" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ27" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR27" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS27" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT27" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27" t="b">
+    <row r="28" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>4</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27">
+      <c r="R28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>46</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>148.21</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V28" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="W28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y28" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87828588433687138</v>
-      </c>
-      <c r="Y27" s="2" t="str">
+        <v>0.86412677006068783</v>
+      </c>
+      <c r="Z28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA28" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AB28" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1040200890508012</v>
-      </c>
-      <c r="AB27" t="str">
+        <v>1.1184214138293607</v>
+      </c>
+      <c r="AC28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC27" s="2" t="str">
+      <c r="AD28" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="AD27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE27" t="str">
+      <c r="AE28" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_archimedeanchords</v>
+      </c>
+      <c r="AF28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
       </c>
-      <c r="AF27" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG28" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="AG27" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH28" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI28" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5089,9 +6458,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Archimedean Chords
+        <v xml:space="preserve">## Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5099,122 +6470,165 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AJ28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "archimedeanchords", ipArchimedeanChords },</v>
       </c>
-      <c r="AI27" t="str">
+      <c r="AK28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("archimedeanchords");</v>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AL28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Archimedean Chords"));</v>
       </c>
+      <c r="AN28" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
+      </c>
+      <c r="AO28" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Archimedean Chords](#archimedean-chords)</v>
+      </c>
+      <c r="AP28" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR28" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS28" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT28" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>26</v>
-      </c>
-      <c r="F28" t="b">
+    <row r="29" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R28">
+      <c r="R29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29">
         <v>9</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>30</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>148.72</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V29" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="W29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y29" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.0742981847038984</v>
-      </c>
-      <c r="Y28" s="2" t="str">
+        <v>1.0569790964261632</v>
+      </c>
+      <c r="Z29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AA29" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB29" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.90569069636769506</v>
-      </c>
-      <c r="AB28" t="str">
+        <v>0.91750492510924353</v>
+      </c>
+      <c r="AC29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC28" s="2" t="str">
+      <c r="AD29" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="AD28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE28" t="str">
+      <c r="AE29" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_octagramspiral</v>
+      </c>
+      <c r="AF29" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
       </c>
-      <c r="AF28" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG29" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="AG28" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH29" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI29" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5222,9 +6636,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Octagram Spiral
+        <v xml:space="preserve">## Octagram Spiral
 Esthetic pattern with low strength and high print time.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5232,91 +6648,132 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
-      <c r="AH28" t="str">
+      <c r="AJ29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "octagramspiral", ipOctagramSpiral },</v>
       </c>
-      <c r="AI28" t="str">
+      <c r="AK29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("octagramspiral");</v>
       </c>
-      <c r="AJ28" t="str">
+      <c r="AL29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Octagram Spiral"));</v>
       </c>
+      <c r="AN29" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
+      </c>
+      <c r="AO29" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Octagram Spiral](#octagram-spiral)</v>
+      </c>
+      <c r="AP29" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR29" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS29" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT29" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29" t="b">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="N29" t="e">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="O30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" t="e">
+      <c r="Q30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="U29" s="2">
+      <c r="R30" s="2"/>
+      <c r="V30" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="W30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y30" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="2" t="str">
+      <c r="Z30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z29" s="3" t="e">
+      <c r="AA30" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="2" t="e">
+      <c r="AB30" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="2" t="e">
+      <c r="AC30" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="2" t="str">
+      <c r="AD30" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE29" t="str">
+      <c r="AF30" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF29" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG30" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG29" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH30" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI30" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5324,92 +6781,131 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH29" t="str">
+      <c r="AJ30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI29" t="str">
+      <c r="AK30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ29" t="str">
+      <c r="AL30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN30" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP30" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ30" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR30" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS30" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>101</v>
-      </c>
-      <c r="F30" t="b">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G31" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="N30" t="e">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="O31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" t="e">
+      <c r="Q31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="2"/>
-      <c r="U30" s="2">
+      <c r="R31" s="2"/>
+      <c r="V31" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="W31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W30">
+      <c r="X31">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y31" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="2" t="str">
+      <c r="Z31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z30" s="3" t="e">
+      <c r="AA31" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="2" t="e">
+      <c r="AB31" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="2" t="e">
+      <c r="AC31" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="2" t="str">
+      <c r="AD31" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE30" t="str">
+      <c r="AF31" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF30" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG31" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG30" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH31" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI31" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5417,92 +6913,131 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH30" t="str">
+      <c r="AJ31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI30" t="str">
+      <c r="AK31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ30" t="str">
+      <c r="AL31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN31" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP31" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ31" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR31" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS31" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>102</v>
-      </c>
-      <c r="F31" t="b">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G32" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="N31" t="e">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="O32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" t="e">
+      <c r="Q32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="U31" s="2">
+      <c r="R32" s="2"/>
+      <c r="V32" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="W32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W31">
+      <c r="X32">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y32" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="2" t="str">
+      <c r="Z32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z31" s="3" t="e">
+      <c r="AA32" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="2" t="e">
+      <c r="AB32" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="2" t="e">
+      <c r="AC32" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="2" t="str">
+      <c r="AD32" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE31" t="str">
+      <c r="AF32" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF31" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG32" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG31" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH32" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI32" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5510,27 +7045,57 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH31" t="str">
+      <c r="AJ32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI31" t="str">
+      <c r="AK32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ31" t="str">
+      <c r="AL32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
+      </c>
+      <c r="AN32" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP32" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ32" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR32" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS32" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="U2:U31">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="V2:V32">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5541,8 +7106,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X31">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="Y2:Y32">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5553,8 +7118,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z31">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="AA2:AA32">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5565,8 +7130,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA31">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="AB2:AB32">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5579,10 +7144,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>